--- a/外语/治愈系笔记/英语笔记.xlsx
+++ b/外语/治愈系笔记/英语笔记.xlsx
@@ -1,22 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\user1\Git\storage\外语\治愈系笔记\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C381A5-2D0D-459E-8248-4671E6C5BB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01时态" sheetId="1" r:id="rId1"/>
     <sheet name="02时态" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>一般现在时：do/does</t>
   </si>
@@ -164,7 +181,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,7 +191,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -185,7 +202,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -195,7 +212,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -214,22 +231,120 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <r>
+      <t>didn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'t you call him</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>why didn't you call him</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>did you call him</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>why did you call him</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>who did you call</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>where did you call him</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>when did you call him</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>how did you call him</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>with what did you call him</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>with whom did you call him</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>whit whose phone did you call him</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>with which phone did you call him</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>aren't you going to call hin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>why aren't you going to call him</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>are you going to call him</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>why are you going to call him</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>who are you going to call</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>where are you ging to call him</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>when are you going to call him</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>how are you going to call him</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>with what are you going to call him</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>with whom are you going to call him</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>with whose phone are you going to call him</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -237,350 +352,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -588,255 +395,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,69 +411,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -924,13 +448,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -966,13 +496,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1008,13 +544,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1050,13 +592,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1092,13 +640,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1134,13 +688,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1176,13 +736,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1207,7 +773,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1223,13 +789,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1265,13 +837,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1307,13 +885,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1349,13 +933,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1391,13 +981,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1433,13 +1029,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1475,13 +1077,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1513,17 +1121,23 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>177</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1559,13 +1173,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1601,13 +1221,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1643,13 +1269,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1685,13 +1317,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1727,13 +1365,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1769,13 +1413,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2080,21 +1730,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A19:K88"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -2102,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2119,12 +1769,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -2141,7 +1791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="8:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H25" t="s">
         <v>3</v>
       </c>
@@ -2149,7 +1799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="8:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H26" t="s">
         <v>14</v>
       </c>
@@ -2157,66 +1807,65 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="11:11">
+    <row r="84" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K84" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="11:11">
+    <row r="85" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K85" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="11:11">
+    <row r="86" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K86" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="11:11">
+    <row r="87" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K87" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="11:11">
+    <row r="88" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K88" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:N265"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:O265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="V155" sqref="V155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="11:11">
+    <row r="80" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K80" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="11:13">
+    <row r="81" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K81" t="s">
         <v>24</v>
       </c>
@@ -2224,42 +1873,42 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="11:11">
+    <row r="85" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K85" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="11:11">
+    <row r="86" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K86" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="12:12">
+    <row r="113" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L113" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="12:12">
+    <row r="115" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L115" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="12:12">
+    <row r="117" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L117" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="12:12">
+    <row r="120" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L120" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="11:11">
+    <row r="136" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K136" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="11:14">
+    <row r="137" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K137" t="s">
         <v>33</v>
       </c>
@@ -2267,57 +1916,172 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="11:11">
+    <row r="139" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K139" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="140" spans="11:11">
+    <row r="140" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K140" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="11:11">
+    <row r="142" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K142" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="11:11">
+    <row r="143" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K143" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="145" spans="11:11">
+    <row r="145" spans="2:15" x14ac:dyDescent="0.15">
       <c r="K145" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="146" spans="11:11">
+    <row r="146" spans="2:15" x14ac:dyDescent="0.15">
       <c r="K146" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="209" spans="2:2">
+    <row r="153" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="O153" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="154" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="O154" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="155" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="O155" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="156" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="O156" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="157" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="O157" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="158" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="O158" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="159" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="O159" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="160" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="O160" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="161" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O161" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="162" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O162" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O163" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="164" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O164" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="166" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O166" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="167" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O167" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="168" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O168" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="169" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O169" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="170" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O170" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="171" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O171" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="172" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O172" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="173" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O173" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="174" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O174" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="175" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O175" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="176" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O176" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B209" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="210" spans="2:2">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B210" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="214" spans="2:2">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B214" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>45</v>
       </c>
@@ -2325,47 +2089,44 @@
         <v>46</v>
       </c>
     </row>
-    <row r="232" spans="7:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G232" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="254" spans="14:14">
+    <row r="254" spans="14:14" x14ac:dyDescent="0.15">
       <c r="N254" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="255" spans="14:14">
+    <row r="255" spans="14:14" x14ac:dyDescent="0.15">
       <c r="N255" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="265" spans="3:3">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C265" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>